--- a/Code/Results/Cases/Case_1_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.12041000935628</v>
+        <v>18.03677893029434</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.203152020389301</v>
+        <v>3.447146830702535</v>
       </c>
       <c r="E2">
-        <v>43.27896648029293</v>
+        <v>32.49987040633469</v>
       </c>
       <c r="F2">
-        <v>13.46968862738182</v>
+        <v>16.68346979744629</v>
       </c>
       <c r="G2">
-        <v>16.10819450586851</v>
+        <v>15.94996336549152</v>
       </c>
       <c r="H2">
-        <v>5.898977088465543</v>
+        <v>10.87453842930696</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.3457726466828</v>
+        <v>10.40915236689133</v>
       </c>
       <c r="M2">
-        <v>16.93408913287152</v>
+        <v>16.49099043153882</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.350809746339522</v>
+        <v>14.83260730414646</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.92447701658525</v>
+        <v>17.63493873695894</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.978553604088161</v>
+        <v>3.355693383895902</v>
       </c>
       <c r="E3">
-        <v>40.90022476878571</v>
+        <v>31.55155742348665</v>
       </c>
       <c r="F3">
-        <v>12.85689114222496</v>
+        <v>16.70905144835865</v>
       </c>
       <c r="G3">
-        <v>15.02314307004377</v>
+        <v>15.93902596904901</v>
       </c>
       <c r="H3">
-        <v>5.931059481194057</v>
+        <v>10.93857905381039</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.49934195863441</v>
+        <v>10.06436276062644</v>
       </c>
       <c r="M3">
-        <v>15.98016194313532</v>
+        <v>16.18472132630933</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.157509949207041</v>
+        <v>14.9261271388832</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.15554966756151</v>
+        <v>17.38404872809779</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.833753752286029</v>
+        <v>3.297904594803411</v>
       </c>
       <c r="E4">
-        <v>39.37890090384229</v>
+        <v>30.96035808651545</v>
       </c>
       <c r="F4">
-        <v>12.49312277875303</v>
+        <v>16.73339090180338</v>
       </c>
       <c r="G4">
-        <v>14.40232223599332</v>
+        <v>15.94599137398609</v>
       </c>
       <c r="H4">
-        <v>5.960764764309493</v>
+        <v>10.98090109865756</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.9518356294208</v>
+        <v>9.845504625723299</v>
       </c>
       <c r="M4">
-        <v>15.36762254336239</v>
+        <v>15.9934835715435</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.060511172308683</v>
+        <v>14.98996745018924</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.8336197464208</v>
+        <v>17.2808813888116</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.773046398567161</v>
+        <v>3.273968540141993</v>
       </c>
       <c r="E5">
-        <v>38.74422029591147</v>
+        <v>30.71759510861621</v>
       </c>
       <c r="F5">
-        <v>12.34827479290415</v>
+        <v>16.74546479901991</v>
       </c>
       <c r="G5">
-        <v>14.15263329616997</v>
+        <v>15.95224097036025</v>
       </c>
       <c r="H5">
-        <v>5.975233869367016</v>
+        <v>10.99889981839715</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.72174745192848</v>
+        <v>9.754616559096728</v>
       </c>
       <c r="M5">
-        <v>15.11137849876447</v>
+        <v>15.91482645286259</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.026284897243629</v>
+        <v>15.01758326395038</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.77964932880185</v>
+        <v>17.26369806016386</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.762864441895961</v>
+        <v>3.269971381843583</v>
       </c>
       <c r="E6">
-        <v>38.63796115875379</v>
+        <v>30.67718535381881</v>
       </c>
       <c r="F6">
-        <v>12.32443500271579</v>
+        <v>16.74759934961262</v>
       </c>
       <c r="G6">
-        <v>14.11138892061557</v>
+        <v>15.95348373025404</v>
       </c>
       <c r="H6">
-        <v>5.977774819748259</v>
+        <v>11.00193384885982</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.68312100338508</v>
+        <v>9.739424944229757</v>
       </c>
       <c r="M6">
-        <v>15.06843308736431</v>
+        <v>15.90172389111532</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.020916578969187</v>
+        <v>15.02226510414634</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.15124258162291</v>
+        <v>17.38266097331408</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.832941865512038</v>
+        <v>3.297583316349911</v>
       </c>
       <c r="E7">
-        <v>39.37040019179678</v>
+        <v>30.9570910181922</v>
       </c>
       <c r="F7">
-        <v>12.49115524821104</v>
+        <v>16.73354502945835</v>
       </c>
       <c r="G7">
-        <v>14.3989407225714</v>
+        <v>15.9460618910247</v>
       </c>
       <c r="H7">
-        <v>5.960950527838548</v>
+        <v>10.98114079351757</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.94876078863982</v>
+        <v>9.844285630734696</v>
       </c>
       <c r="M7">
-        <v>15.3641934084175</v>
+        <v>15.99242561303065</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.06002835125061</v>
+        <v>14.990333425115</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.71529629474933</v>
+        <v>17.89915664803664</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.127159475159278</v>
+        <v>3.415967509218214</v>
       </c>
       <c r="E8">
-        <v>42.47168068592484</v>
+        <v>32.17497822928038</v>
       </c>
       <c r="F8">
-        <v>13.25595112277535</v>
+        <v>16.69049024870109</v>
       </c>
       <c r="G8">
-        <v>15.70504730662428</v>
+        <v>15.94333769941106</v>
       </c>
       <c r="H8">
-        <v>5.907870185328995</v>
+        <v>10.89599533638305</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.05969501952095</v>
+        <v>10.29180978343397</v>
       </c>
       <c r="M8">
-        <v>16.61080100001335</v>
+        <v>16.38609467285305</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.279580437684613</v>
+        <v>14.86351255662421</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.50452475501565</v>
+        <v>18.8741123336738</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.648299827554824</v>
+        <v>3.634144013087377</v>
       </c>
       <c r="E9">
-        <v>48.05297492702475</v>
+        <v>34.47614994627365</v>
       </c>
       <c r="F9">
-        <v>14.84446457809006</v>
+        <v>16.67512001223808</v>
       </c>
       <c r="G9">
-        <v>18.60008426109302</v>
+        <v>16.04741812880989</v>
       </c>
       <c r="H9">
-        <v>5.890004521103321</v>
+        <v>10.75294563141905</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.01797057656534</v>
+        <v>11.10881737404024</v>
       </c>
       <c r="M9">
-        <v>18.83920128794039</v>
+        <v>17.12963029303975</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.886767383479459</v>
+        <v>14.66634956576953</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.38257037067948</v>
+        <v>19.56119870860157</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.996108640501308</v>
+        <v>3.784717520926388</v>
       </c>
       <c r="E10">
-        <v>51.83149783636784</v>
+        <v>36.09400822078517</v>
       </c>
       <c r="F10">
-        <v>16.38218705482632</v>
+        <v>16.70652904042688</v>
       </c>
       <c r="G10">
-        <v>20.69217332286375</v>
+        <v>16.19114508942749</v>
       </c>
       <c r="H10">
-        <v>5.938629401497703</v>
+        <v>10.66258112404143</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.32388109261382</v>
+        <v>11.66768891996687</v>
       </c>
       <c r="M10">
-        <v>20.36447402563737</v>
+        <v>17.65456277452841</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.89516649852715</v>
+        <v>14.55371774869877</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.19996694861069</v>
+        <v>19.86626626567164</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.14660149558201</v>
+        <v>3.850888050089113</v>
       </c>
       <c r="E11">
-        <v>53.47863854213883</v>
+        <v>36.81061766383552</v>
       </c>
       <c r="F11">
-        <v>17.07440282832034</v>
+        <v>16.73016267722024</v>
       </c>
       <c r="G11">
-        <v>21.63512717461115</v>
+        <v>16.27106345316184</v>
       </c>
       <c r="H11">
-        <v>5.976033609893668</v>
+        <v>10.62470468038988</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.88968479319973</v>
+        <v>11.91217820994386</v>
       </c>
       <c r="M11">
-        <v>21.08667576347568</v>
+        <v>17.88795625862116</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.40201722391891</v>
+        <v>14.50964328929621</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.50422734736795</v>
+        <v>19.98062221398386</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.202473150436493</v>
+        <v>3.875594632556466</v>
       </c>
       <c r="E12">
-        <v>54.09198535966383</v>
+        <v>37.07893439306032</v>
       </c>
       <c r="F12">
-        <v>17.33456300967389</v>
+        <v>16.74045765314679</v>
       </c>
       <c r="G12">
-        <v>21.99093630745106</v>
+        <v>16.30339765375837</v>
       </c>
       <c r="H12">
-        <v>5.992539280032232</v>
+        <v>10.61082932205434</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.09993348414439</v>
+        <v>12.00330467732381</v>
       </c>
       <c r="M12">
-        <v>21.35494179307896</v>
+        <v>17.97549958677848</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.59267970258052</v>
+        <v>14.49399668716661</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.43893293256231</v>
+        <v>19.95604684397648</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.190489909824874</v>
+        <v>3.870289470137818</v>
       </c>
       <c r="E13">
-        <v>53.96035280222182</v>
+        <v>37.02128703921907</v>
       </c>
       <c r="F13">
-        <v>17.27861963157135</v>
+        <v>16.73818061300317</v>
       </c>
       <c r="G13">
-        <v>21.91436223896551</v>
+        <v>16.29634220421456</v>
       </c>
       <c r="H13">
-        <v>5.988878166534638</v>
+        <v>10.6137967819967</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.0548299884076</v>
+        <v>11.98374453649751</v>
       </c>
       <c r="M13">
-        <v>21.29739634462073</v>
+        <v>17.95668375402569</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.55167258773193</v>
+        <v>14.49731984488934</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.22510394251612</v>
+        <v>19.87569826400158</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.151220491106277</v>
+        <v>3.852927792745704</v>
       </c>
       <c r="E14">
-        <v>53.52930739866765</v>
+        <v>36.83275473588773</v>
       </c>
       <c r="F14">
-        <v>17.09584553833661</v>
+        <v>16.73098268785881</v>
       </c>
       <c r="G14">
-        <v>21.66442501623608</v>
+        <v>16.27368224625068</v>
       </c>
       <c r="H14">
-        <v>5.977343825857205</v>
+        <v>10.6235537567823</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.90706207554187</v>
+        <v>11.91970471716685</v>
       </c>
       <c r="M14">
-        <v>21.10885015557595</v>
+        <v>17.89517562620865</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.41772823618098</v>
+        <v>14.50833504591817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.09344278775126</v>
+        <v>19.8263279918799</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.12702129979239</v>
+        <v>3.842247129256678</v>
       </c>
       <c r="E15">
-        <v>53.26392538570546</v>
+        <v>36.7168689994589</v>
       </c>
       <c r="F15">
-        <v>16.98363619682456</v>
+        <v>16.7267489632572</v>
       </c>
       <c r="G15">
-        <v>21.5111671080459</v>
+        <v>16.26007132974697</v>
       </c>
       <c r="H15">
-        <v>5.97058774063723</v>
+        <v>10.62959117552082</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.81602967772327</v>
+        <v>11.88028730566428</v>
       </c>
       <c r="M15">
-        <v>20.99268373985946</v>
+        <v>17.85738927919841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.3355198556269</v>
+        <v>14.51521845519053</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.32841140300409</v>
+        <v>19.54110329318442</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.986117534828803</v>
+        <v>3.780344886209456</v>
       </c>
       <c r="E16">
-        <v>51.72240216422341</v>
+        <v>36.04676334520144</v>
       </c>
       <c r="F16">
-        <v>16.33667196187628</v>
+        <v>16.70517278037736</v>
       </c>
       <c r="G16">
-        <v>20.63037073521927</v>
+        <v>16.18621327829852</v>
       </c>
       <c r="H16">
-        <v>5.936505003138516</v>
+        <v>10.66512171017147</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.28634029351937</v>
+        <v>11.65151001973068</v>
       </c>
       <c r="M16">
-        <v>20.3165413501509</v>
+        <v>17.63919597277744</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.86186147904452</v>
+        <v>14.55674340598287</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.84965208756427</v>
+        <v>19.36414275790876</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.897693474873211</v>
+        <v>3.741761999447674</v>
       </c>
       <c r="E17">
-        <v>50.75828348361983</v>
+        <v>35.63051991059118</v>
       </c>
       <c r="F17">
-        <v>15.93624412713484</v>
+        <v>16.69433211150348</v>
       </c>
       <c r="G17">
-        <v>20.08776223655355</v>
+        <v>16.14461576306599</v>
       </c>
       <c r="H17">
-        <v>5.919616179455227</v>
+        <v>10.68774818497546</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.95419080196998</v>
+        <v>11.50862537597219</v>
       </c>
       <c r="M17">
-        <v>19.91555373333842</v>
+        <v>17.50391347028441</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.5689625252189</v>
+        <v>14.58406179293042</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.57080196178051</v>
+        <v>19.26165950473131</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.846107079930175</v>
+        <v>3.71935206519174</v>
       </c>
       <c r="E18">
-        <v>50.19699691963475</v>
+        <v>35.38929918231891</v>
       </c>
       <c r="F18">
-        <v>15.70462477436047</v>
+        <v>16.68897657610724</v>
       </c>
       <c r="G18">
-        <v>19.77484086019405</v>
+        <v>16.12205991966125</v>
       </c>
       <c r="H18">
-        <v>5.911332763575443</v>
+        <v>10.70106625095675</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.76048319138735</v>
+        <v>11.42552756565282</v>
       </c>
       <c r="M18">
-        <v>19.69235261635862</v>
+        <v>17.42559760140519</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.39962585215202</v>
+        <v>14.60044797321583</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.47578941320992</v>
+        <v>19.22684300184318</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.828516139272486</v>
+        <v>3.71172751366831</v>
       </c>
       <c r="E19">
-        <v>50.00579872140412</v>
+        <v>35.30732384992424</v>
       </c>
       <c r="F19">
-        <v>15.62597853612349</v>
+        <v>16.68731428441866</v>
       </c>
       <c r="G19">
-        <v>19.66875034258429</v>
+        <v>16.11465863871257</v>
       </c>
       <c r="H19">
-        <v>5.908769317877888</v>
+        <v>10.70562762516655</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.6944380498772</v>
+        <v>11.39723683095509</v>
       </c>
       <c r="M19">
-        <v>19.61630904525159</v>
+        <v>17.39899639157301</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.34214104460767</v>
+        <v>14.60611128580807</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.90097681097111</v>
+        <v>19.38305364866742</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.907181682033519</v>
+        <v>3.745891906848273</v>
       </c>
       <c r="E20">
-        <v>50.86161499940552</v>
+        <v>35.67501890386495</v>
       </c>
       <c r="F20">
-        <v>15.97900527697892</v>
+        <v>16.69539505004424</v>
       </c>
       <c r="G20">
-        <v>20.14560973924494</v>
+        <v>16.14890221856367</v>
       </c>
       <c r="H20">
-        <v>5.921264892580306</v>
+        <v>10.68530808200319</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.98982402720822</v>
+        <v>11.52393074270045</v>
       </c>
       <c r="M20">
-        <v>19.95663935132735</v>
+        <v>17.51836723872271</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.600231775273</v>
+        <v>14.58108391395721</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.28805329370267</v>
+        <v>19.89933092591266</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.162785206693909</v>
+        <v>3.85803697948716</v>
       </c>
       <c r="E21">
-        <v>53.65619816076526</v>
+        <v>36.88821592253397</v>
       </c>
       <c r="F21">
-        <v>17.14958376078647</v>
+        <v>16.73306038006442</v>
       </c>
       <c r="G21">
-        <v>21.73787176850107</v>
+        <v>16.28028202040133</v>
       </c>
       <c r="H21">
-        <v>5.980667096994638</v>
+        <v>10.62067518104426</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.95057340911524</v>
+        <v>11.93855469347232</v>
       </c>
       <c r="M21">
-        <v>21.16437153420584</v>
+        <v>17.91326525743871</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.45710490842476</v>
+        <v>14.50507119008138</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.16390405698908</v>
+        <v>20.22991202569708</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.323327455169309</v>
+        <v>3.929279332925172</v>
       </c>
       <c r="E22">
-        <v>55.42206657602491</v>
+        <v>37.66324253433623</v>
       </c>
       <c r="F22">
-        <v>17.90319476908523</v>
+        <v>16.76551775865496</v>
       </c>
       <c r="G22">
-        <v>22.77116335938221</v>
+        <v>16.37820182998934</v>
       </c>
       <c r="H22">
-        <v>6.033197418880036</v>
+        <v>10.58116097993368</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.55514377488128</v>
+        <v>12.20102606304448</v>
       </c>
       <c r="M22">
-        <v>21.93560398629124</v>
+        <v>18.1664454583445</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.00975419025582</v>
+        <v>14.46148041357025</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.69923469561787</v>
+        <v>20.05412788703011</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.238239645458044</v>
+        <v>3.891448572491954</v>
       </c>
       <c r="E23">
-        <v>54.48513987820571</v>
+        <v>37.25131123616232</v>
       </c>
       <c r="F23">
-        <v>17.50200821462309</v>
+        <v>16.74747742333644</v>
       </c>
       <c r="G23">
-        <v>22.22033425254813</v>
+        <v>16.32484572530806</v>
       </c>
       <c r="H23">
-        <v>6.003861885275906</v>
+        <v>10.60199990542066</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.23458777407273</v>
+        <v>12.06173520474785</v>
       </c>
       <c r="M23">
-        <v>21.52672780311634</v>
+        <v>18.0317867296089</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.71544597771504</v>
+        <v>14.48418422941188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.87778413524051</v>
+        <v>19.37450635253461</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.902894399900639</v>
+        <v>3.744025484991351</v>
       </c>
       <c r="E24">
-        <v>50.81492062408819</v>
+        <v>35.6549068591841</v>
       </c>
       <c r="F24">
-        <v>15.95967734794983</v>
+        <v>16.69491176414521</v>
       </c>
       <c r="G24">
-        <v>20.11945989855204</v>
+        <v>16.14696007709908</v>
       </c>
       <c r="H24">
-        <v>5.920515078114075</v>
+        <v>10.68641028772914</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.97372281715608</v>
+        <v>11.51701414596675</v>
       </c>
       <c r="M24">
-        <v>19.9380734001853</v>
+        <v>17.51183436776092</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.58609789473864</v>
+        <v>14.58242809438329</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.78001275261813</v>
+        <v>18.61507401968716</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.51342187316361</v>
+        <v>3.57674860558277</v>
       </c>
       <c r="E25">
-        <v>46.59875616812877</v>
+        <v>33.8650957430238</v>
       </c>
       <c r="F25">
-        <v>14.40659275921852</v>
+        <v>16.67181246071895</v>
       </c>
       <c r="G25">
-        <v>17.82235148655432</v>
+        <v>16.00745527994198</v>
       </c>
       <c r="H25">
-        <v>5.884647126822249</v>
+        <v>10.78906802541786</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.51168422907712</v>
+        <v>10.89477466431073</v>
       </c>
       <c r="M25">
-        <v>18.25985073432098</v>
+        <v>16.93195607652495</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.703109173261556</v>
+        <v>14.71408605439039</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.03677893029434</v>
+        <v>20.12041000935631</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.447146830702535</v>
+        <v>4.203152020389226</v>
       </c>
       <c r="E2">
-        <v>32.49987040633469</v>
+        <v>43.2789664802932</v>
       </c>
       <c r="F2">
-        <v>16.68346979744629</v>
+        <v>13.46968862738181</v>
       </c>
       <c r="G2">
-        <v>15.94996336549152</v>
+        <v>16.10819450586843</v>
       </c>
       <c r="H2">
-        <v>10.87453842930696</v>
+        <v>5.898977088465531</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.40915236689133</v>
+        <v>13.34577264668279</v>
       </c>
       <c r="M2">
-        <v>16.49099043153882</v>
+        <v>16.93408913287158</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.83260730414646</v>
+        <v>9.3508097463395</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.63493873695894</v>
+        <v>18.92447701658524</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.355693383895902</v>
+        <v>3.978553604088216</v>
       </c>
       <c r="E3">
-        <v>31.55155742348665</v>
+        <v>40.90022476878566</v>
       </c>
       <c r="F3">
-        <v>16.70905144835865</v>
+        <v>12.8568911422249</v>
       </c>
       <c r="G3">
-        <v>15.93902596904901</v>
+        <v>15.02314307004374</v>
       </c>
       <c r="H3">
-        <v>10.93857905381039</v>
+        <v>5.931059481194052</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.06436276062644</v>
+        <v>12.49934195863439</v>
       </c>
       <c r="M3">
-        <v>16.18472132630933</v>
+        <v>15.9801619431353</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.9261271388832</v>
+        <v>9.157509949207</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.38404872809779</v>
+        <v>18.15554966756151</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.297904594803411</v>
+        <v>3.833753752285999</v>
       </c>
       <c r="E4">
-        <v>30.96035808651545</v>
+        <v>39.37890090384216</v>
       </c>
       <c r="F4">
-        <v>16.73339090180338</v>
+        <v>12.49312277875303</v>
       </c>
       <c r="G4">
-        <v>15.94599137398609</v>
+        <v>14.40232223599341</v>
       </c>
       <c r="H4">
-        <v>10.98090109865756</v>
+        <v>5.960764764309445</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.845504625723299</v>
+        <v>11.95183562942079</v>
       </c>
       <c r="M4">
-        <v>15.9934835715435</v>
+        <v>15.36762254336239</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.98996745018924</v>
+        <v>9.06051117230867</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.2808813888116</v>
+        <v>17.83361974642074</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.273968540141993</v>
+        <v>3.77304639856722</v>
       </c>
       <c r="E5">
-        <v>30.71759510861621</v>
+        <v>38.74422029591151</v>
       </c>
       <c r="F5">
-        <v>16.74546479901991</v>
+        <v>12.34827479290409</v>
       </c>
       <c r="G5">
-        <v>15.95224097036025</v>
+        <v>14.15263329616994</v>
       </c>
       <c r="H5">
-        <v>10.99889981839715</v>
+        <v>5.975233869366963</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.754616559096728</v>
+        <v>11.72174745192849</v>
       </c>
       <c r="M5">
-        <v>15.91482645286259</v>
+        <v>15.11137849876446</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.01758326395038</v>
+        <v>9.026284897243601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.26369806016386</v>
+        <v>17.77964932880189</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.269971381843583</v>
+        <v>3.762864441896054</v>
       </c>
       <c r="E6">
-        <v>30.67718535381881</v>
+        <v>38.63796115875375</v>
       </c>
       <c r="F6">
-        <v>16.74759934961262</v>
+        <v>12.32443500271583</v>
       </c>
       <c r="G6">
-        <v>15.95348373025404</v>
+        <v>14.11138892061566</v>
       </c>
       <c r="H6">
-        <v>11.00193384885982</v>
+        <v>5.977774819748269</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.739424944229757</v>
+        <v>11.68312100338509</v>
       </c>
       <c r="M6">
-        <v>15.90172389111532</v>
+        <v>15.06843308736435</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.02226510414634</v>
+        <v>9.020916578969256</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.38266097331408</v>
+        <v>18.15124258162295</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.297583316349911</v>
+        <v>3.832941865511998</v>
       </c>
       <c r="E7">
-        <v>30.9570910181922</v>
+        <v>39.37040019179653</v>
       </c>
       <c r="F7">
-        <v>16.73354502945835</v>
+        <v>12.49115524821113</v>
       </c>
       <c r="G7">
-        <v>15.9460618910247</v>
+        <v>14.39894072257147</v>
       </c>
       <c r="H7">
-        <v>10.98114079351757</v>
+        <v>5.960950527838661</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.844285630734696</v>
+        <v>11.9487607886398</v>
       </c>
       <c r="M7">
-        <v>15.99242561303065</v>
+        <v>15.36419340841747</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.990333425115</v>
+        <v>9.060028351250732</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.89915664803664</v>
+        <v>19.71529629474932</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.415967509218214</v>
+        <v>4.12715947515915</v>
       </c>
       <c r="E8">
-        <v>32.17497822928038</v>
+        <v>42.47168068592462</v>
       </c>
       <c r="F8">
-        <v>16.69049024870109</v>
+        <v>13.25595112277542</v>
       </c>
       <c r="G8">
-        <v>15.94333769941106</v>
+        <v>15.70504730662441</v>
       </c>
       <c r="H8">
-        <v>10.89599533638305</v>
+        <v>5.907870185329057</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.29180978343397</v>
+        <v>13.05969501952085</v>
       </c>
       <c r="M8">
-        <v>16.38609467285305</v>
+        <v>16.61080100001328</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.86351255662421</v>
+        <v>9.279580437684675</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.8741123336738</v>
+        <v>22.5045247550156</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.634144013087377</v>
+        <v>4.648299827554833</v>
       </c>
       <c r="E9">
-        <v>34.47614994627365</v>
+        <v>48.05297492702456</v>
       </c>
       <c r="F9">
-        <v>16.67512001223808</v>
+        <v>14.8444645780901</v>
       </c>
       <c r="G9">
-        <v>16.04741812880989</v>
+        <v>18.600084261093</v>
       </c>
       <c r="H9">
-        <v>10.75294563141905</v>
+        <v>5.890004521103346</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.10881737404024</v>
+        <v>15.01797057656527</v>
       </c>
       <c r="M9">
-        <v>17.12963029303975</v>
+        <v>18.83920128794034</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.66634956576953</v>
+        <v>9.886767383479498</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.56119870860157</v>
+        <v>24.38257037067945</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.784717520926388</v>
+        <v>4.99610864050138</v>
       </c>
       <c r="E10">
-        <v>36.09400822078517</v>
+        <v>51.83149783636784</v>
       </c>
       <c r="F10">
-        <v>16.70652904042688</v>
+        <v>16.3821870548264</v>
       </c>
       <c r="G10">
-        <v>16.19114508942749</v>
+        <v>20.69217332286383</v>
       </c>
       <c r="H10">
-        <v>10.66258112404143</v>
+        <v>5.938629401497703</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.66768891996687</v>
+        <v>16.32388109261381</v>
       </c>
       <c r="M10">
-        <v>17.65456277452841</v>
+        <v>20.36447402563737</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.55371774869877</v>
+        <v>10.89516649852718</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.86626626567164</v>
+        <v>25.19996694861067</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.850888050089113</v>
+        <v>5.146601495582024</v>
       </c>
       <c r="E11">
-        <v>36.81061766383552</v>
+        <v>53.47863854213891</v>
       </c>
       <c r="F11">
-        <v>16.73016267722024</v>
+        <v>17.07440282832035</v>
       </c>
       <c r="G11">
-        <v>16.27106345316184</v>
+        <v>21.63512717461111</v>
       </c>
       <c r="H11">
-        <v>10.62470468038988</v>
+        <v>5.976033609893642</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.91217820994386</v>
+        <v>16.8896847931997</v>
       </c>
       <c r="M11">
-        <v>17.88795625862116</v>
+        <v>21.08667576347566</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.50964328929621</v>
+        <v>11.40201722391891</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.98062221398386</v>
+        <v>25.50422734736794</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.875594632556466</v>
+        <v>5.202473150436521</v>
       </c>
       <c r="E12">
-        <v>37.07893439306032</v>
+        <v>54.09198535966377</v>
       </c>
       <c r="F12">
-        <v>16.74045765314679</v>
+        <v>17.33456300967395</v>
       </c>
       <c r="G12">
-        <v>16.30339765375837</v>
+        <v>21.99093630745116</v>
       </c>
       <c r="H12">
-        <v>10.61082932205434</v>
+        <v>5.99253928003228</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.00330467732381</v>
+        <v>17.09993348414438</v>
       </c>
       <c r="M12">
-        <v>17.97549958677848</v>
+        <v>21.35494179307898</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.49399668716661</v>
+        <v>11.59267970258057</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.95604684397648</v>
+        <v>25.43893293256223</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.870289470137818</v>
+        <v>5.190489909824871</v>
       </c>
       <c r="E13">
-        <v>37.02128703921907</v>
+        <v>53.96035280222177</v>
       </c>
       <c r="F13">
-        <v>16.73818061300317</v>
+        <v>17.27861963157139</v>
       </c>
       <c r="G13">
-        <v>16.29634220421456</v>
+        <v>21.91436223896567</v>
       </c>
       <c r="H13">
-        <v>10.6137967819967</v>
+        <v>5.988878166534638</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.98374453649751</v>
+        <v>17.05482998840758</v>
       </c>
       <c r="M13">
-        <v>17.95668375402569</v>
+        <v>21.29739634462072</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.49731984488934</v>
+        <v>11.55167258773198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.87569826400158</v>
+        <v>25.22510394251613</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.852927792745704</v>
+        <v>5.151220491106349</v>
       </c>
       <c r="E14">
-        <v>36.83275473588773</v>
+        <v>53.52930739866797</v>
       </c>
       <c r="F14">
-        <v>16.73098268785881</v>
+        <v>17.09584553833664</v>
       </c>
       <c r="G14">
-        <v>16.27368224625068</v>
+        <v>21.664425016236</v>
       </c>
       <c r="H14">
-        <v>10.6235537567823</v>
+        <v>5.977343825857096</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.91970471716685</v>
+        <v>16.90706207554194</v>
       </c>
       <c r="M14">
-        <v>17.89517562620865</v>
+        <v>21.108850155576</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.50833504591817</v>
+        <v>11.41772823618102</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.8263279918799</v>
+        <v>25.09344278775124</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.842247129256678</v>
+        <v>5.127021299792438</v>
       </c>
       <c r="E15">
-        <v>36.7168689994589</v>
+        <v>53.26392538570568</v>
       </c>
       <c r="F15">
-        <v>16.7267489632572</v>
+        <v>16.98363619682457</v>
       </c>
       <c r="G15">
-        <v>16.26007132974697</v>
+        <v>21.51116710804601</v>
       </c>
       <c r="H15">
-        <v>10.62959117552082</v>
+        <v>5.970587740637234</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.88028730566428</v>
+        <v>16.81602967772326</v>
       </c>
       <c r="M15">
-        <v>17.85738927919841</v>
+        <v>20.99268373985944</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.51521845519053</v>
+        <v>11.3355198556269</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.54110329318442</v>
+        <v>24.32841140300414</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.780344886209456</v>
+        <v>4.986117534828803</v>
       </c>
       <c r="E16">
-        <v>36.04676334520144</v>
+        <v>51.72240216422305</v>
       </c>
       <c r="F16">
-        <v>16.70517278037736</v>
+        <v>16.33667196187634</v>
       </c>
       <c r="G16">
-        <v>16.18621327829852</v>
+        <v>20.63037073521939</v>
       </c>
       <c r="H16">
-        <v>10.66512171017147</v>
+        <v>5.936505003138545</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.65151001973068</v>
+        <v>16.28634029351925</v>
       </c>
       <c r="M16">
-        <v>17.63919597277744</v>
+        <v>20.31654135015086</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.55674340598287</v>
+        <v>10.86186147904458</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.36414275790876</v>
+        <v>23.8496520875642</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.741761999447674</v>
+        <v>4.897693474873294</v>
       </c>
       <c r="E17">
-        <v>35.63051991059118</v>
+        <v>50.75828348361973</v>
       </c>
       <c r="F17">
-        <v>16.69433211150348</v>
+        <v>15.93624412713494</v>
       </c>
       <c r="G17">
-        <v>16.14461576306599</v>
+        <v>20.08776223655365</v>
       </c>
       <c r="H17">
-        <v>10.68774818497546</v>
+        <v>5.919616179455172</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.50862537597219</v>
+        <v>15.95419080196996</v>
       </c>
       <c r="M17">
-        <v>17.50391347028441</v>
+        <v>19.91555373333839</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.58406179293042</v>
+        <v>10.56896252521896</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.26165950473131</v>
+        <v>23.57080196178049</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.71935206519174</v>
+        <v>4.84610707993025</v>
       </c>
       <c r="E18">
-        <v>35.38929918231891</v>
+        <v>50.19699691963465</v>
       </c>
       <c r="F18">
-        <v>16.68897657610724</v>
+        <v>15.70462477436051</v>
       </c>
       <c r="G18">
-        <v>16.12205991966125</v>
+        <v>19.77484086019405</v>
       </c>
       <c r="H18">
-        <v>10.70106625095675</v>
+        <v>5.911332763575412</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.42552756565282</v>
+        <v>15.76048319138734</v>
       </c>
       <c r="M18">
-        <v>17.42559760140519</v>
+        <v>19.69235261635859</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.60044797321583</v>
+        <v>10.39962585215206</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.22684300184318</v>
+        <v>23.47578941320991</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.71172751366831</v>
+        <v>4.82851613927252</v>
       </c>
       <c r="E19">
-        <v>35.30732384992424</v>
+        <v>50.00579872140415</v>
       </c>
       <c r="F19">
-        <v>16.68731428441866</v>
+        <v>15.62597853612347</v>
       </c>
       <c r="G19">
-        <v>16.11465863871257</v>
+        <v>19.66875034258425</v>
       </c>
       <c r="H19">
-        <v>10.70562762516655</v>
+        <v>5.908769317877882</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.39723683095509</v>
+        <v>15.69443804987717</v>
       </c>
       <c r="M19">
-        <v>17.39899639157301</v>
+        <v>19.61630904525161</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.60611128580807</v>
+        <v>10.34214104460765</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.38305364866742</v>
+        <v>23.90097681097119</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.745891906848273</v>
+        <v>4.907181682033618</v>
       </c>
       <c r="E20">
-        <v>35.67501890386495</v>
+        <v>50.86161499940552</v>
       </c>
       <c r="F20">
-        <v>16.69539505004424</v>
+        <v>15.9790052769789</v>
       </c>
       <c r="G20">
-        <v>16.14890221856367</v>
+        <v>20.1456097392449</v>
       </c>
       <c r="H20">
-        <v>10.68530808200319</v>
+        <v>5.921264892580342</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.52393074270045</v>
+        <v>15.98982402720826</v>
       </c>
       <c r="M20">
-        <v>17.51836723872271</v>
+        <v>19.95663935132737</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.58108391395721</v>
+        <v>10.60023177527294</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.89933092591266</v>
+        <v>25.28805329370256</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.85803697948716</v>
+        <v>5.162785206693933</v>
       </c>
       <c r="E21">
-        <v>36.88821592253397</v>
+        <v>53.65619816076521</v>
       </c>
       <c r="F21">
-        <v>16.73306038006442</v>
+        <v>17.14958376078643</v>
       </c>
       <c r="G21">
-        <v>16.28028202040133</v>
+        <v>21.73787176850106</v>
       </c>
       <c r="H21">
-        <v>10.62067518104426</v>
+        <v>5.980667096994689</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.93855469347232</v>
+        <v>16.9505734091152</v>
       </c>
       <c r="M21">
-        <v>17.91326525743871</v>
+        <v>21.1643715342058</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.50507119008138</v>
+        <v>11.45710490842471</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.22991202569708</v>
+        <v>26.16390405698909</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.929279332925172</v>
+        <v>5.323327455169238</v>
       </c>
       <c r="E22">
-        <v>37.66324253433623</v>
+        <v>55.42206657602456</v>
       </c>
       <c r="F22">
-        <v>16.76551775865496</v>
+        <v>17.90319476908525</v>
       </c>
       <c r="G22">
-        <v>16.37820182998934</v>
+        <v>22.77116335938223</v>
       </c>
       <c r="H22">
-        <v>10.58116097993368</v>
+        <v>6.033197418880097</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.20102606304448</v>
+        <v>17.55514377488123</v>
       </c>
       <c r="M22">
-        <v>18.1664454583445</v>
+        <v>21.9356039862912</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.46148041357025</v>
+        <v>12.00975419025581</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.05412788703011</v>
+        <v>25.69923469561789</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.891448572491954</v>
+        <v>5.238239645458083</v>
       </c>
       <c r="E23">
-        <v>37.25131123616232</v>
+        <v>54.48513987820548</v>
       </c>
       <c r="F23">
-        <v>16.74747742333644</v>
+        <v>17.50200821462313</v>
       </c>
       <c r="G23">
-        <v>16.32484572530806</v>
+        <v>22.22033425254812</v>
       </c>
       <c r="H23">
-        <v>10.60199990542066</v>
+        <v>6.003861885275914</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.06173520474785</v>
+        <v>17.23458777407266</v>
       </c>
       <c r="M23">
-        <v>18.0317867296089</v>
+        <v>21.52672780311634</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.48418422941188</v>
+        <v>11.71544597771502</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.37450635253461</v>
+        <v>23.87778413524048</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.744025484991351</v>
+        <v>4.90289439990057</v>
       </c>
       <c r="E24">
-        <v>35.6549068591841</v>
+        <v>50.81492062408805</v>
       </c>
       <c r="F24">
-        <v>16.69491176414521</v>
+        <v>15.95967734794983</v>
       </c>
       <c r="G24">
-        <v>16.14696007709908</v>
+        <v>20.11945989855206</v>
       </c>
       <c r="H24">
-        <v>10.68641028772914</v>
+        <v>5.920515078114089</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.51701414596675</v>
+        <v>15.97372281715608</v>
       </c>
       <c r="M24">
-        <v>17.51183436776092</v>
+        <v>19.93807340018525</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.58242809438329</v>
+        <v>10.58609789473865</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.61507401968716</v>
+        <v>21.78001275261816</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.57674860558277</v>
+        <v>4.513421873163642</v>
       </c>
       <c r="E25">
-        <v>33.8650957430238</v>
+        <v>46.59875616812845</v>
       </c>
       <c r="F25">
-        <v>16.67181246071895</v>
+        <v>14.40659275921861</v>
       </c>
       <c r="G25">
-        <v>16.00745527994198</v>
+        <v>17.82235148655446</v>
       </c>
       <c r="H25">
-        <v>10.78906802541786</v>
+        <v>5.884647126822358</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.89477466431073</v>
+        <v>14.5116842290771</v>
       </c>
       <c r="M25">
-        <v>16.93195607652495</v>
+        <v>18.25985073432094</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.71408605439039</v>
+        <v>9.703109173261652</v>
       </c>
     </row>
   </sheetData>
